--- a/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_01.xlsx
+++ b/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNETProjects\proppro-assistant\PropProAssistant\Models\LicitaNet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54cd02815d7cac6c/Documentos/Projetos/proppro-assistant/PropProAssistant/Test/WorksheetModels/LicitaNet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF6C64F-A418-4138-A0EB-7513FFFBFEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6FF6C64F-A418-4138-A0EB-7513FFFBFEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CED886E-ADC9-4A49-B647-556620A203D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>LOTE</t>
   </si>
@@ -61,27 +61,15 @@
     <t>AMINOFILINA - PRINCÍPIO ATIVO: AMINOFILINA; CONCENTRAÇÃO/DOSAGEM: 24MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 10ML</t>
   </si>
   <si>
-    <t>Farmace</t>
-  </si>
-  <si>
     <t>AMIODARONA - PRINCIPIO ATIVO: AMIODARONA; CONCENTRACAO/DOSAGEM: 50 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 3 ML.</t>
   </si>
   <si>
-    <t>Hipolabor</t>
-  </si>
-  <si>
     <t>AMOXICILINA - PRINCIPIO ATIVO: AMOXICILINA; CONCENTRACAO/DOSAGEM: 250 MG/5 ML; FORMA FARMACEUTICA: PO PARA SUSPENSAO ORAL; APRESENTACAO: FRASCO 60ML; COMPONENTE: COPO MEDIDOR;</t>
   </si>
   <si>
-    <t>Hypofarma</t>
-  </si>
-  <si>
     <t>AMOXICILINA + ASSOCIACOES - PRINCIPIO ATIVO: AMOXICILINA + CLAVULANATO DE POTASSIO; CONCENTRACAO/DOSAGEM: 50 MG/ML + 12,5 MG/ML; FORMA FARMACEUTICA: PO PARA SUSPENSAO ORAL; APRESENTACAO: FRASCO 75 ML; COMPONENTE: DOSADOR;</t>
   </si>
   <si>
-    <t>Isofarma</t>
-  </si>
-  <si>
     <t>AMOXICILINA + ASSOCIACOES - PRINCIPIO ATIVO: AMOXICILINA + CLAVULANATO DE POTASSIO; CONCENTRACAO/DOSAGEM: 500 MG + 125 MG; FORMA FARMACEUTICA: COMPRIMIDO REVESTIDO.</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t>ATROPINA - PRINCIPIO ATIVO: ATROPINA, SULFATO; CONCENTRACAO/DOSAGEM: 0,25 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 1 ML.</t>
   </si>
   <si>
-    <t>EMS</t>
-  </si>
-  <si>
     <t>AZITROMICINA - PRINCIPIO ATIVO: AZITROMICINA DI-HIDRATADA; CONCENTRACAO/DOSAGEM: 200 MG/5 ML; FORMA FARMACEUTICA: PO PARA SUSPENSAO ORAL; APRESENTACAO: FRASCO 15 ML; COMPONENTE: FRASCO DILUENTE + SERINGA DOSADORA;</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>CLONAZEPAM - PRINCIPIO ATIVO: CLONAZEPAM; CONCENTRACAO/DOSAGEM: 2,5 MG/ML; FORMA FARMACEUTICA: SOLUCAO ORAL; APRESENTACAO: FRASCO 20 ML.</t>
   </si>
   <si>
-    <t>Teuto</t>
-  </si>
-  <si>
     <t>CLOPIDOGREL - PRINCÍPIO ATIVO:CLOPIDOGREL; CONCENTRAÇÃO DOSAGEM: 75MG; FORMA FAMACÊUTICA: COMPRIMIDOS RESVESTIDOS; APRESENTAÇÃO: CAIXA DE 28 A 56 COMPRIMIDOS</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>DIFENIDRAMINA - PRINCÍPIO ATIVO: DIFENIDRAMINA; CONCENTRAÇÃO/DOSAGEM: 50MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 1ML.</t>
   </si>
   <si>
-    <t>Blau</t>
-  </si>
-  <si>
     <t xml:space="preserve">DIGOXINA - PRINCIPIO ATIVO: DIGOXINA; CONCENTRACAO/DOSAGEM: 0,25 MG; FORMA FARMACEUTICA: COMPRIMIDO. </t>
   </si>
   <si>
@@ -256,15 +235,9 @@
     <t>HIPROMELOSE - PRINCIPIO ATIVO: HIPROMELOSE; CONCENTRACAO/DOSAGEM: 5 MG/ML; FORMA FARMACEUTICA: SOLUCAO OFTALMICA; APRESENTACAO: FRASCO 10 ML.</t>
   </si>
   <si>
-    <t>Sanval</t>
-  </si>
-  <si>
     <t xml:space="preserve">HYPLEX - PRINCÍPIO ATIVO: COMPLEXO B; FORMA FARMACÊUTICA:  SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 2ML.</t>
   </si>
   <si>
-    <t>Cristália</t>
-  </si>
-  <si>
     <t>IBUPROFENO - PRINCIPIO ATIVO: IBUPROFENO; CONCENTRACAO/DOSAGEM: 100 MG/ML; FORMA FARMACEUTICA: SUSPENSAO ORAL (GOTAS); APRESENTACAO: FRASCO 30 ML.</t>
   </si>
   <si>
@@ -292,9 +265,6 @@
     <t>METILPREDNISOLONA - PRINCÍPIO ATIVO: SUCCINATO SÓDICO DE METILPREDNISOLONA; CONCENTRAÇÃO/DOSAGEM: 500MG; FORMA FARMACÊUTICA: PÓ PARA SOLUÇÃO IM OU IV; APRESENTAÇÃO: CAIXA COM 25 FRASCOS; COMPONENTE: DILUENTE 8ML.</t>
   </si>
   <si>
-    <t>Takeda</t>
-  </si>
-  <si>
     <t>METOCLOPRAMIDA - PRINCIPIO ATIVO: METOCLOPRAMIDA, CLORIDRATO; CONCENTRACAO/DOSAGEM: 4 MG/ML; FORMA FARMACEUTICA: SOLUCAO ORAL; APRESENTACAO: FRASCO 10 ML.</t>
   </si>
   <si>
@@ -320,9 +290,6 @@
   </si>
   <si>
     <t>NIMESULIDA - PRINCÍPIO ATIVO: NIMESULIDA; CONCENTRAÇÃO/DOSAGEM: 100MG; FORMA FARMACÊUTICA: COMPRIMIDOS; APRESENTAÇÃO: BLISTER COM 10 OU 12 COMPRIMIDOS.</t>
-  </si>
-  <si>
-    <t>Mylan</t>
   </si>
   <si>
     <t>NISTATINA - PRINCÍPIO ATIVO: NISTATINA; CONCENTRAÇÃO/DOSAGEM: 25.000UI/G; FORMA FARMACÊUTICA: CREME VAGINAL; APRESENTAÇÃO: BISNAGA 60G; COMPONENTE: COM APLICADORES.</t>
@@ -443,12 +410,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +755,8 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" ht="45">
       <c r="A2" s="0">
@@ -807,8 +777,8 @@
       <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="45">
@@ -830,8 +800,8 @@
       <c r="F3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="45">
@@ -853,8 +823,8 @@
       <c r="F4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="45">
@@ -871,13 +841,13 @@
         <v>100</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4.42</v>
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="45">
@@ -888,19 +858,19 @@
         <v>3143320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7.15</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="60">
@@ -911,19 +881,19 @@
         <v>3143321</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>600</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.99</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="60">
@@ -934,19 +904,19 @@
         <v>3143322</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.65</v>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="45">
@@ -957,7 +927,7 @@
         <v>3143323</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <v>1500</v>
@@ -968,8 +938,8 @@
       <c r="F9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="30">
@@ -980,19 +950,19 @@
         <v>3143324</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2">
-        <v>12.87</v>
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="45">
@@ -1003,19 +973,19 @@
         <v>3143325</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>100</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="2">
-        <v>76.7</v>
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="60">
@@ -1026,7 +996,7 @@
         <v>3143326</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>600</v>
@@ -1037,8 +1007,8 @@
       <c r="F12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="45">
@@ -1049,7 +1019,7 @@
         <v>3143327</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>200</v>
@@ -1060,8 +1030,8 @@
       <c r="F13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="45">
@@ -1072,7 +1042,7 @@
         <v>3143328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>100</v>
@@ -1083,8 +1053,8 @@
       <c r="F14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="30">
@@ -1095,7 +1065,7 @@
         <v>3143329</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2">
         <v>5000</v>
@@ -1106,8 +1076,8 @@
       <c r="F15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="30">
@@ -1118,7 +1088,7 @@
         <v>3143330</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2">
         <v>4000</v>
@@ -1129,8 +1099,8 @@
       <c r="F16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="45">
@@ -1141,7 +1111,7 @@
         <v>3143331</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>400</v>
@@ -1152,8 +1122,8 @@
       <c r="F17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="45">
@@ -1164,7 +1134,7 @@
         <v>3143332</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
         <v>6000</v>
@@ -1175,8 +1145,8 @@
       <c r="F18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="45">
@@ -1187,7 +1157,7 @@
         <v>3143333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2">
         <v>1000</v>
@@ -1198,8 +1168,8 @@
       <c r="F19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" ht="45">
@@ -1210,7 +1180,7 @@
         <v>3143334</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
         <v>12000</v>
@@ -1221,8 +1191,8 @@
       <c r="F20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
+      <c r="G20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="45">
@@ -1233,19 +1203,19 @@
         <v>3143335</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>600</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="2">
-        <v>12.35</v>
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="45">
@@ -1256,7 +1226,7 @@
         <v>3143336</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>2000</v>
@@ -1267,8 +1237,8 @@
       <c r="F22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
+      <c r="G22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="45">
@@ -1279,7 +1249,7 @@
         <v>3143337</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>100</v>
@@ -1290,8 +1260,8 @@
       <c r="F23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
+      <c r="G23" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="45">
@@ -1302,7 +1272,7 @@
         <v>3143338</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>600</v>
@@ -1313,8 +1283,8 @@
       <c r="F24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="30">
@@ -1325,7 +1295,7 @@
         <v>3143339</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>1000</v>
@@ -1336,8 +1306,8 @@
       <c r="F25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
+      <c r="G25" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="45">
@@ -1348,7 +1318,7 @@
         <v>3143340</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>100</v>
@@ -1359,8 +1329,8 @@
       <c r="F26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="45">
@@ -1371,19 +1341,19 @@
         <v>3143341</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2">
-        <v>3.38</v>
+        <v>8</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="45">
@@ -1394,7 +1364,7 @@
         <v>3143342</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>100</v>
@@ -1405,8 +1375,8 @@
       <c r="F28" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
+      <c r="G28" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="45">
@@ -1417,7 +1387,7 @@
         <v>3143343</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>600</v>
@@ -1428,8 +1398,8 @@
       <c r="F29" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="45">
@@ -1440,7 +1410,7 @@
         <v>3143344</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>800</v>
@@ -1451,8 +1421,8 @@
       <c r="F30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="45">
@@ -1463,7 +1433,7 @@
         <v>3143345</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2">
         <v>1000</v>
@@ -1474,8 +1444,8 @@
       <c r="F31" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="45">
@@ -1486,7 +1456,7 @@
         <v>3143346</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2">
         <v>200</v>
@@ -1497,8 +1467,8 @@
       <c r="F32" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" ht="45">
@@ -1509,7 +1479,7 @@
         <v>3143347</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2">
         <v>1000</v>
@@ -1520,8 +1490,8 @@
       <c r="F33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
+      <c r="G33" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" ht="45">
@@ -1532,7 +1502,7 @@
         <v>3143348</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2">
         <v>10000</v>
@@ -1543,8 +1513,8 @@
       <c r="F34" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
+      <c r="G34" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="45">
@@ -1555,19 +1525,19 @@
         <v>3143349</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2">
         <v>100</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="2">
-        <v>8.97</v>
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="30">
@@ -1578,19 +1548,19 @@
         <v>3143350</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2">
         <v>1000</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="2">
-        <v>17.55</v>
+        <v>8</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" ht="30">
@@ -1601,19 +1571,19 @@
         <v>3143351</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2">
         <v>1000</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="2">
-        <v>6.37</v>
+        <v>8</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="60">
@@ -1624,7 +1594,7 @@
         <v>3143352</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D38" s="2">
         <v>200</v>
@@ -1635,8 +1605,8 @@
       <c r="F38" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="60">
@@ -1647,7 +1617,7 @@
         <v>3143353</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2">
         <v>400</v>
@@ -1658,8 +1628,8 @@
       <c r="F39" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
+      <c r="G39" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" ht="45">
@@ -1670,7 +1640,7 @@
         <v>3143354</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2">
         <v>30000</v>
@@ -1681,8 +1651,8 @@
       <c r="F40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
+      <c r="G40" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="45">
@@ -1693,19 +1663,19 @@
         <v>3143355</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2">
         <v>1000</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="2">
-        <v>3.25</v>
+        <v>8</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="45">
@@ -1716,7 +1686,7 @@
         <v>3143356</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2">
         <v>1000</v>
@@ -1727,8 +1697,8 @@
       <c r="F42" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="2">
-        <v>0</v>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="45">
@@ -1739,19 +1709,19 @@
         <v>3143357</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2">
         <v>100</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="2">
-        <v>44.2</v>
+        <v>8</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="45">
@@ -1762,7 +1732,7 @@
         <v>3143358</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D44" s="2">
         <v>100</v>
@@ -1773,8 +1743,8 @@
       <c r="F44" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="2">
-        <v>0</v>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="60">
@@ -1785,7 +1755,7 @@
         <v>3143359</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D45" s="2">
         <v>200</v>
@@ -1796,8 +1766,8 @@
       <c r="F45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="2">
-        <v>0</v>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="45">
@@ -1808,7 +1778,7 @@
         <v>3143360</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D46" s="2">
         <v>200</v>
@@ -1819,8 +1789,8 @@
       <c r="F46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="2">
-        <v>0</v>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="45">
@@ -1831,7 +1801,7 @@
         <v>3143361</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2">
         <v>400</v>
@@ -1842,8 +1812,8 @@
       <c r="F47" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="2">
-        <v>0</v>
+      <c r="G47" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" ht="30">
@@ -1854,7 +1824,7 @@
         <v>3143362</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2">
         <v>8000</v>
@@ -1865,8 +1835,8 @@
       <c r="F48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="2">
-        <v>0</v>
+      <c r="G48" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="45">
@@ -1877,7 +1847,7 @@
         <v>3143363</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2">
         <v>100</v>
@@ -1888,8 +1858,8 @@
       <c r="F49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="2">
-        <v>0</v>
+      <c r="G49" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="45">
@@ -1900,7 +1870,7 @@
         <v>3143364</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2">
         <v>12000</v>
@@ -1911,8 +1881,8 @@
       <c r="F50" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="2">
-        <v>0</v>
+      <c r="G50" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="45">
@@ -1923,7 +1893,7 @@
         <v>3143365</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2">
         <v>100</v>
@@ -1934,8 +1904,8 @@
       <c r="F51" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="2">
-        <v>0</v>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" ht="45">
@@ -1946,7 +1916,7 @@
         <v>3143366</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2">
         <v>200</v>
@@ -1957,8 +1927,8 @@
       <c r="F52" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="2">
-        <v>0</v>
+      <c r="G52" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="75">
@@ -1969,7 +1939,7 @@
         <v>3143367</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2">
         <v>100</v>
@@ -1980,8 +1950,8 @@
       <c r="F53" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="2">
-        <v>0</v>
+      <c r="G53" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="60">
@@ -1992,7 +1962,7 @@
         <v>3143368</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2">
         <v>1000</v>
@@ -2003,8 +1973,8 @@
       <c r="F54" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="2">
-        <v>0</v>
+      <c r="G54" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="45">
@@ -2015,7 +1985,7 @@
         <v>3143369</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2">
         <v>200</v>
@@ -2026,8 +1996,8 @@
       <c r="F55" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="2">
-        <v>0</v>
+      <c r="G55" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="45">
@@ -2038,7 +2008,7 @@
         <v>3143370</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2">
         <v>100</v>
@@ -2049,8 +2019,8 @@
       <c r="F56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="2">
-        <v>0</v>
+      <c r="G56" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="30">
@@ -2061,7 +2031,7 @@
         <v>3143371</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2">
         <v>5000</v>
@@ -2072,8 +2042,8 @@
       <c r="F57" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="2">
-        <v>0</v>
+      <c r="G57" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="45">
@@ -2084,7 +2054,7 @@
         <v>3143372</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2">
         <v>600</v>
@@ -2095,8 +2065,8 @@
       <c r="F58" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="2">
-        <v>0</v>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" ht="45">
@@ -2107,7 +2077,7 @@
         <v>3143373</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2">
         <v>600</v>
@@ -2118,8 +2088,8 @@
       <c r="F59" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="2">
-        <v>0</v>
+      <c r="G59" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="60" ht="45">
@@ -2130,7 +2100,7 @@
         <v>3143374</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2">
         <v>100</v>
@@ -2141,8 +2111,8 @@
       <c r="F60" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="2">
-        <v>0</v>
+      <c r="G60" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="60">
@@ -2153,7 +2123,7 @@
         <v>3143375</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D61" s="2">
         <v>100</v>
@@ -2164,8 +2134,8 @@
       <c r="F61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="2">
-        <v>0</v>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="62" ht="45">
@@ -2176,7 +2146,7 @@
         <v>3143376</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2">
         <v>200</v>
@@ -2187,8 +2157,8 @@
       <c r="F62" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="2">
-        <v>0</v>
+      <c r="G62" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="45">
@@ -2199,19 +2169,19 @@
         <v>3143377</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D63" s="2">
         <v>20</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="2">
-        <v>3.9</v>
+        <v>8</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="30">
@@ -2222,19 +2192,19 @@
         <v>3143378</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D64" s="2">
         <v>1000</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="2">
-        <v>10.4</v>
+        <v>8</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" ht="45">
@@ -2245,7 +2215,7 @@
         <v>3143379</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D65" s="2">
         <v>600</v>
@@ -2256,8 +2226,8 @@
       <c r="F65" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="2">
-        <v>0</v>
+      <c r="G65" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="45">
@@ -2268,19 +2238,19 @@
         <v>3143380</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2">
         <v>600</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" s="2">
-        <v>3.51</v>
+        <v>8</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="45">
@@ -2291,7 +2261,7 @@
         <v>3143381</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2">
         <v>3000</v>
@@ -2302,8 +2272,8 @@
       <c r="F67" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="2">
-        <v>0</v>
+      <c r="G67" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="45">
@@ -2314,7 +2284,7 @@
         <v>3143382</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2">
         <v>50</v>
@@ -2325,8 +2295,8 @@
       <c r="F68" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="2">
-        <v>0</v>
+      <c r="G68" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="30">
@@ -2337,7 +2307,7 @@
         <v>3143383</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2">
         <v>30</v>
@@ -2348,8 +2318,8 @@
       <c r="F69" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="2">
-        <v>0</v>
+      <c r="G69" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="60">
@@ -2360,7 +2330,7 @@
         <v>3143384</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D70" s="2">
         <v>200</v>
@@ -2371,8 +2341,8 @@
       <c r="F70" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="2">
-        <v>0</v>
+      <c r="G70" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="71" ht="45">
@@ -2383,19 +2353,19 @@
         <v>3143385</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2">
         <v>600</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1.95</v>
+        <v>8</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" ht="30">
@@ -2406,7 +2376,7 @@
         <v>3143386</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D72" s="2">
         <v>3000</v>
@@ -2417,8 +2387,8 @@
       <c r="F72" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="2">
-        <v>0</v>
+      <c r="G72" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" ht="60">
@@ -2429,19 +2399,19 @@
         <v>3143387</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2">
         <v>200</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" s="2">
-        <v>24.7</v>
+        <v>8</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="45">
@@ -2452,7 +2422,7 @@
         <v>3143388</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2">
         <v>200</v>
@@ -2463,8 +2433,8 @@
       <c r="F74" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="2">
-        <v>0</v>
+      <c r="G74" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="75" ht="45">
@@ -2475,19 +2445,19 @@
         <v>3143389</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2">
         <v>400</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" s="2">
-        <v>2.08</v>
+        <v>8</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="76" ht="45">
@@ -2498,7 +2468,7 @@
         <v>3143390</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D76" s="2">
         <v>50</v>
@@ -2509,8 +2479,8 @@
       <c r="F76" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="2">
-        <v>0</v>
+      <c r="G76" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="45">
@@ -2521,7 +2491,7 @@
         <v>3143391</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D77" s="2">
         <v>1000</v>
@@ -2532,8 +2502,8 @@
       <c r="F77" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="2">
-        <v>0</v>
+      <c r="G77" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="78" ht="45">
@@ -2544,7 +2514,7 @@
         <v>3143392</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D78" s="2">
         <v>200</v>
@@ -2555,8 +2525,8 @@
       <c r="F78" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="2">
-        <v>0</v>
+      <c r="G78" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="45">
@@ -2567,7 +2537,7 @@
         <v>3143393</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2">
         <v>100</v>
@@ -2578,8 +2548,8 @@
       <c r="F79" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="2">
-        <v>0</v>
+      <c r="G79" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" ht="45">
@@ -2590,7 +2560,7 @@
         <v>3143394</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D80" s="2">
         <v>200</v>
@@ -2601,8 +2571,8 @@
       <c r="F80" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="2">
-        <v>0</v>
+      <c r="G80" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="81" ht="45">
@@ -2613,19 +2583,19 @@
         <v>3143395</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D81" s="2">
         <v>800</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" s="2">
-        <v>89.7</v>
+        <v>8</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="82" ht="45">
@@ -2636,19 +2606,19 @@
         <v>3143396</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2">
         <v>15000</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" s="2">
-        <v>29.9</v>
+        <v>8</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" ht="45">
@@ -2659,7 +2629,7 @@
         <v>3143397</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D83" s="2">
         <v>100</v>
@@ -2670,8 +2640,8 @@
       <c r="F83" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="2">
-        <v>0</v>
+      <c r="G83" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84" ht="45">
@@ -2682,7 +2652,7 @@
         <v>3143398</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D84" s="2">
         <v>2000</v>
@@ -2693,8 +2663,8 @@
       <c r="F84" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="2">
-        <v>0</v>
+      <c r="G84" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="85" ht="45">
@@ -2705,7 +2675,7 @@
         <v>3143399</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D85" s="2">
         <v>200</v>
@@ -2716,8 +2686,8 @@
       <c r="F85" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="2">
-        <v>0</v>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" ht="45">
@@ -2728,7 +2698,7 @@
         <v>3143400</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D86" s="2">
         <v>200</v>
@@ -2739,8 +2709,8 @@
       <c r="F86" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="2">
-        <v>0</v>
+      <c r="G86" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="45">
@@ -2751,7 +2721,7 @@
         <v>3143401</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D87" s="2">
         <v>600</v>
@@ -2762,8 +2732,8 @@
       <c r="F87" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="2">
-        <v>0</v>
+      <c r="G87" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="45">
@@ -2774,7 +2744,7 @@
         <v>3143402</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D88" s="2">
         <v>400</v>
@@ -2785,8 +2755,8 @@
       <c r="F88" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="2">
-        <v>0</v>
+      <c r="G88" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="45">
@@ -2797,7 +2767,7 @@
         <v>3143403</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D89" s="2">
         <v>100</v>
@@ -2808,8 +2778,8 @@
       <c r="F89" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="2">
-        <v>0</v>
+      <c r="G89" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="45">
@@ -2820,7 +2790,7 @@
         <v>3143404</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D90" s="2">
         <v>1000</v>
@@ -2831,8 +2801,8 @@
       <c r="F90" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="2">
-        <v>0</v>
+      <c r="G90" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="91" ht="45">
@@ -2843,7 +2813,7 @@
         <v>3143405</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2">
         <v>20000</v>
@@ -2854,8 +2824,8 @@
       <c r="F91" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="2">
-        <v>0</v>
+      <c r="G91" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92" ht="45">
@@ -2866,19 +2836,19 @@
         <v>3143406</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D92" s="2">
         <v>100</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="2">
-        <v>7.15</v>
+        <v>8</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" ht="45">
@@ -2889,7 +2859,7 @@
         <v>3143407</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D93" s="2">
         <v>100</v>
@@ -2900,8 +2870,8 @@
       <c r="F93" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="2">
-        <v>0</v>
+      <c r="G93" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" ht="45">
@@ -2912,19 +2882,19 @@
         <v>3143408</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D94" s="2">
         <v>1000</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G94" s="2">
-        <v>2.47</v>
+        <v>8</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="95" ht="45">
@@ -2935,7 +2905,7 @@
         <v>3143409</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D95" s="2">
         <v>100</v>
@@ -2946,8 +2916,8 @@
       <c r="F95" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="2">
-        <v>0</v>
+      <c r="G95" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="45">
@@ -2958,7 +2928,7 @@
         <v>3143410</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D96" s="2">
         <v>300</v>
@@ -2969,8 +2939,8 @@
       <c r="F96" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="2">
-        <v>0</v>
+      <c r="G96" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="45">
@@ -2981,7 +2951,7 @@
         <v>3143411</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D97" s="2">
         <v>12000</v>
@@ -2992,8 +2962,8 @@
       <c r="F97" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="2">
-        <v>0</v>
+      <c r="G97" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="98" ht="45">
@@ -3004,7 +2974,7 @@
         <v>3143412</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D98" s="2">
         <v>6000</v>
@@ -3015,8 +2985,8 @@
       <c r="F98" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="2">
-        <v>0</v>
+      <c r="G98" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="99" ht="45">
@@ -3027,7 +2997,7 @@
         <v>3143413</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D99" s="2">
         <v>300</v>
@@ -3038,8 +3008,8 @@
       <c r="F99" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="2">
-        <v>0</v>
+      <c r="G99" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="100" ht="30">
@@ -3050,19 +3020,19 @@
         <v>3143414</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D100" s="2">
         <v>4000</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="2">
-        <v>1.24</v>
+        <v>8</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="45">
@@ -3073,7 +3043,7 @@
         <v>3143415</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D101" s="2">
         <v>50</v>
@@ -3084,8 +3054,8 @@
       <c r="F101" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="2">
-        <v>0</v>
+      <c r="G101" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="60">
@@ -3096,7 +3066,7 @@
         <v>3143416</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D102" s="2">
         <v>50</v>
@@ -3107,8 +3077,8 @@
       <c r="F102" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="2">
-        <v>0</v>
+      <c r="G102" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="103" ht="45">
@@ -3119,19 +3089,19 @@
         <v>3143417</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D103" s="2">
         <v>50</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="2">
-        <v>11.57</v>
+        <v>8</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="104" ht="45">
@@ -3142,7 +3112,7 @@
         <v>3143418</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D104" s="2">
         <v>200</v>
@@ -3153,8 +3123,8 @@
       <c r="F104" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="2">
-        <v>0</v>
+      <c r="G104" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" ht="45">
@@ -3165,7 +3135,7 @@
         <v>3143419</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D105" s="2">
         <v>300</v>
@@ -3176,8 +3146,8 @@
       <c r="F105" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="2">
-        <v>0</v>
+      <c r="G105" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" ht="45">
@@ -3188,7 +3158,7 @@
         <v>3143420</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D106" s="2">
         <v>1000</v>
@@ -3199,8 +3169,8 @@
       <c r="F106" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="2">
-        <v>0</v>
+      <c r="G106" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="107" ht="60">
@@ -3211,19 +3181,19 @@
         <v>3143421</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D107" s="2">
         <v>100</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G107" s="2">
-        <v>6.37</v>
+        <v>8</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="108" ht="45">
@@ -3234,19 +3204,19 @@
         <v>3143422</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D108" s="2">
         <v>4000</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" s="2">
-        <v>9.09</v>
+        <v>8</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="109" ht="45">
@@ -3257,7 +3227,7 @@
         <v>3143423</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D109" s="2">
         <v>2000</v>
@@ -3268,8 +3238,8 @@
       <c r="F109" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="2">
-        <v>0</v>
+      <c r="G109" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="110" ht="45">
@@ -3280,7 +3250,7 @@
         <v>3143424</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D110" s="2">
         <v>100</v>
@@ -3291,8 +3261,8 @@
       <c r="F110" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="2">
-        <v>0</v>
+      <c r="G110" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_01.xlsx
+++ b/PropProAssistant/Test/WorksheetModels/LicitaNet/LN_01.xlsx
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="TabelaModelo">Worksheet!$A$1:$G$110</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="128">
   <si>
     <t>LOTE</t>
   </si>
@@ -46,7 +46,7 @@
     <t>VALOR UNITÁRIO</t>
   </si>
   <si>
-    <t xml:space="preserve">ÁCIDO TRANEXÂMICO - PRINCÍPIO ATIVO: ÁCIDO TRANEXÊMICO; CONCENTRAÇÃO/DOSAGEM:  50MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 5ML.</t>
+    <t>ÁCIDO TRANEXÂMICO - PRINCÍPIO ATIVO: ÁCIDO TRANEXÊMICO; CONCENTRAÇÃO/DOSAGEM:  50MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 5ML.</t>
   </si>
   <si>
     <t/>
@@ -61,15 +61,27 @@
     <t>AMINOFILINA - PRINCÍPIO ATIVO: AMINOFILINA; CONCENTRAÇÃO/DOSAGEM: 24MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 10ML</t>
   </si>
   <si>
+    <t>Farmace</t>
+  </si>
+  <si>
     <t>AMIODARONA - PRINCIPIO ATIVO: AMIODARONA; CONCENTRACAO/DOSAGEM: 50 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 3 ML.</t>
   </si>
   <si>
+    <t>Hipolabor</t>
+  </si>
+  <si>
     <t>AMOXICILINA - PRINCIPIO ATIVO: AMOXICILINA; CONCENTRACAO/DOSAGEM: 250 MG/5 ML; FORMA FARMACEUTICA: PO PARA SUSPENSAO ORAL; APRESENTACAO: FRASCO 60ML; COMPONENTE: COPO MEDIDOR;</t>
   </si>
   <si>
+    <t>Hypofarma</t>
+  </si>
+  <si>
     <t>AMOXICILINA + ASSOCIACOES - PRINCIPIO ATIVO: AMOXICILINA + CLAVULANATO DE POTASSIO; CONCENTRACAO/DOSAGEM: 50 MG/ML + 12,5 MG/ML; FORMA FARMACEUTICA: PO PARA SUSPENSAO ORAL; APRESENTACAO: FRASCO 75 ML; COMPONENTE: DOSADOR;</t>
   </si>
   <si>
+    <t>Isofarma</t>
+  </si>
+  <si>
     <t>AMOXICILINA + ASSOCIACOES - PRINCIPIO ATIVO: AMOXICILINA + CLAVULANATO DE POTASSIO; CONCENTRACAO/DOSAGEM: 500 MG + 125 MG; FORMA FARMACEUTICA: COMPRIMIDO REVESTIDO.</t>
   </si>
   <si>
@@ -79,6 +91,9 @@
     <t>ATROPINA - PRINCIPIO ATIVO: ATROPINA, SULFATO; CONCENTRACAO/DOSAGEM: 0,25 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 1 ML.</t>
   </si>
   <si>
+    <t>EMS</t>
+  </si>
+  <si>
     <t>AZITROMICINA - PRINCIPIO ATIVO: AZITROMICINA DI-HIDRATADA; CONCENTRACAO/DOSAGEM: 200 MG/5 ML; FORMA FARMACEUTICA: PO PARA SUSPENSAO ORAL; APRESENTACAO: FRASCO 15 ML; COMPONENTE: FRASCO DILUENTE + SERINGA DOSADORA;</t>
   </si>
   <si>
@@ -109,6 +124,9 @@
     <t>CLONAZEPAM - PRINCIPIO ATIVO: CLONAZEPAM; CONCENTRACAO/DOSAGEM: 2,5 MG/ML; FORMA FARMACEUTICA: SOLUCAO ORAL; APRESENTACAO: FRASCO 20 ML.</t>
   </si>
   <si>
+    <t>Teuto</t>
+  </si>
+  <si>
     <t>CLOPIDOGREL - PRINCÍPIO ATIVO:CLOPIDOGREL; CONCENTRAÇÃO DOSAGEM: 75MG; FORMA FAMACÊUTICA: COMPRIMIDOS RESVESTIDOS; APRESENTAÇÃO: CAIXA DE 28 A 56 COMPRIMIDOS</t>
   </si>
   <si>
@@ -151,6 +169,9 @@
     <t>DIFENIDRAMINA - PRINCÍPIO ATIVO: DIFENIDRAMINA; CONCENTRAÇÃO/DOSAGEM: 50MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 1ML.</t>
   </si>
   <si>
+    <t>Blau</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIGOXINA - PRINCIPIO ATIVO: DIGOXINA; CONCENTRACAO/DOSAGEM: 0,25 MG; FORMA FARMACEUTICA: COMPRIMIDO. </t>
   </si>
   <si>
@@ -196,10 +217,10 @@
     <t>FENOBARBITAL - PRINCIPIO ATIVO: FENOBARBITAL; CONCENTRACAO/DOSAGEM: 100 MG; FORMA FARMACEUTICA: COMPRIMIDO.</t>
   </si>
   <si>
-    <t xml:space="preserve">FENTANILA - PRINCÍPIO ATIVO: FENTANILA. CONCENTRAÇÃO/DOSAGEM: 50MCG/ML; FORMA FARMACÊUTICA:  SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 2ML.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRO - PRINCÍPIO ATIVO:  SACARATO DE ÓXIDO FÉRRICO; CONCENTRAÇÃO/DOSAGEM: 20MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: CAIXA COM 5 AMPOLAS 5ML.</t>
+    <t>FENTANILA - PRINCÍPIO ATIVO: FENTANILA. CONCENTRAÇÃO/DOSAGEM: 50MCG/ML; FORMA FARMACÊUTICA:  SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 2ML.</t>
+  </si>
+  <si>
+    <t>FERRO - PRINCÍPIO ATIVO:  SACARATO DE ÓXIDO FÉRRICO; CONCENTRAÇÃO/DOSAGEM: 20MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: CAIXA COM 5 AMPOLAS 5ML.</t>
   </si>
   <si>
     <t>FLUOCINOLONA ACETONIDA + ASSOCIACOES - PRINCIPIO ATIVO (1): FLUOCINOLONA ACETONIDA; PRINCIPIO ATIVO (2): POLIMIXINA B, SULFATO; PRINCIPIO ATIVO (3): NEOMICINA BASE + LIDOCAINA, CLORIDRATO; CONCENTRACAO/DOSAGEM: 0,250 MG/ML + 10.000 UI/ML + 3,5 MG/ML + 20 MG/ML; FORMA FARMACEUTICA: SOLUCAO OTOLOGICA;</t>
@@ -235,7 +256,13 @@
     <t>HIPROMELOSE - PRINCIPIO ATIVO: HIPROMELOSE; CONCENTRACAO/DOSAGEM: 5 MG/ML; FORMA FARMACEUTICA: SOLUCAO OFTALMICA; APRESENTACAO: FRASCO 10 ML.</t>
   </si>
   <si>
-    <t xml:space="preserve">HYPLEX - PRINCÍPIO ATIVO: COMPLEXO B; FORMA FARMACÊUTICA:  SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 2ML.</t>
+    <t>Sanval</t>
+  </si>
+  <si>
+    <t>HYPLEX - PRINCÍPIO ATIVO: COMPLEXO B; FORMA FARMACÊUTICA:  SOLUÇÃO INJETÁVEL; APRESENTAÇÃO: AMPOLAS 2ML.</t>
+  </si>
+  <si>
+    <t>Cristália</t>
   </si>
   <si>
     <t>IBUPROFENO - PRINCIPIO ATIVO: IBUPROFENO; CONCENTRACAO/DOSAGEM: 100 MG/ML; FORMA FARMACEUTICA: SUSPENSAO ORAL (GOTAS); APRESENTACAO: FRASCO 30 ML.</t>
@@ -265,6 +292,9 @@
     <t>METILPREDNISOLONA - PRINCÍPIO ATIVO: SUCCINATO SÓDICO DE METILPREDNISOLONA; CONCENTRAÇÃO/DOSAGEM: 500MG; FORMA FARMACÊUTICA: PÓ PARA SOLUÇÃO IM OU IV; APRESENTAÇÃO: CAIXA COM 25 FRASCOS; COMPONENTE: DILUENTE 8ML.</t>
   </si>
   <si>
+    <t>Takeda</t>
+  </si>
+  <si>
     <t>METOCLOPRAMIDA - PRINCIPIO ATIVO: METOCLOPRAMIDA, CLORIDRATO; CONCENTRACAO/DOSAGEM: 4 MG/ML; FORMA FARMACEUTICA: SOLUCAO ORAL; APRESENTACAO: FRASCO 10 ML.</t>
   </si>
   <si>
@@ -292,6 +322,9 @@
     <t>NIMESULIDA - PRINCÍPIO ATIVO: NIMESULIDA; CONCENTRAÇÃO/DOSAGEM: 100MG; FORMA FARMACÊUTICA: COMPRIMIDOS; APRESENTAÇÃO: BLISTER COM 10 OU 12 COMPRIMIDOS.</t>
   </si>
   <si>
+    <t>Mylan</t>
+  </si>
+  <si>
     <t>NISTATINA - PRINCÍPIO ATIVO: NISTATINA; CONCENTRAÇÃO/DOSAGEM: 25.000UI/G; FORMA FARMACÊUTICA: CREME VAGINAL; APRESENTAÇÃO: BISNAGA 60G; COMPONENTE: COM APLICADORES.</t>
   </si>
   <si>
@@ -304,7 +337,7 @@
     <t>OLEO MINERAL PURO - PRINCIPIO ATIVO: OLEO MINERAL PURO; CONCENTRACAO/DOSAGEM: 100%; FORMA FARMACEUTICA: OLEO; APRESENTACAO: EMBALAGEM ATE 200 ML.</t>
   </si>
   <si>
-    <t xml:space="preserve">OMEPRAZOL - PRINCÍPIO ATIVO: OMEPRAZOL; CONCENTRAÇÃO/DOSAGEM: 40MG; FORMA FARMACÊUTICA: PÓ PARA SOLUÇÃO INTRAVENOSA; APRESENTAÇÃO:  FRASCO AMPOLA; COMPONENTE: DILUENTE 10ML.</t>
+    <t>OMEPRAZOL - PRINCÍPIO ATIVO: OMEPRAZOL; CONCENTRAÇÃO/DOSAGEM: 40MG; FORMA FARMACÊUTICA: PÓ PARA SOLUÇÃO INTRAVENOSA; APRESENTAÇÃO:  FRASCO AMPOLA; COMPONENTE: DILUENTE 10ML.</t>
   </si>
   <si>
     <t>ONDANSETRONA - PRINCÍPIO ATIVO: ONDANSETRONA; CONCENTRAÇÃO/DOSAGEM: 2MG/ML; FORMA FARMACÊUTICA: SOLUÇÃO INJETÁVEL; APRESNETAÇÃO: AMPOLAS 4ML.</t>
@@ -383,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -412,11 +445,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,15 +762,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70" customWidth="1" style="1"/>
+    <col min="3" max="3" width="70" style="1" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -746,10 +779,10 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -758,11 +791,11 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="45">
-      <c r="A2" s="0">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>3143316</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -771,21 +804,21 @@
       <c r="D2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="45">
-      <c r="A3" s="0">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>3143317</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -794,21 +827,21 @@
       <c r="D3" s="2">
         <v>200</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="45">
-      <c r="A4" s="0">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>3143318</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -817,21 +850,21 @@
       <c r="D4" s="2">
         <v>400</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="45">
-      <c r="A5" s="0">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>3143319</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -840,2434 +873,2433 @@
       <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="45">
-      <c r="A6" s="0">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>3143320</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="60">
-      <c r="A7" s="0">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>3143321</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>600</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="60">
-      <c r="A8" s="0">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>3143322</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="45">
-      <c r="A9" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>3143323</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <v>1500</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="30">
-      <c r="A10" s="0">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>3143324</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="45">
-      <c r="A11" s="0">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>3143325</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>100</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="60">
-      <c r="A12" s="0">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>3143326</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
         <v>600</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="45">
-      <c r="A13" s="0">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>3143327</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>200</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="45">
-      <c r="A14" s="0">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>3143328</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
         <v>100</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="30">
-      <c r="A15" s="0">
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>3143329</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2">
         <v>5000</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="30">
-      <c r="A16" s="0">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>3143330</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>4000</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="45">
-      <c r="A17" s="0">
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>3143331</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>400</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="45">
-      <c r="A18" s="0">
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>3143332</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>6000</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="45">
-      <c r="A19" s="0">
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>3143333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>1000</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="45">
-      <c r="A20" s="0">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>3143334</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>12000</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="45">
-      <c r="A21" s="0">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>3143335</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>600</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="45">
-      <c r="A22" s="0">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>3143336</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>2000</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="45">
-      <c r="A23" s="0">
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>3143337</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>100</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" ht="45">
-      <c r="A24" s="0">
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>3143338</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2">
         <v>600</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="30">
-      <c r="A25" s="0">
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>3143339</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2">
         <v>1000</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" ht="45">
-      <c r="A26" s="0">
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>3143340</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2">
         <v>100</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" ht="45">
-      <c r="A27" s="0">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>3143341</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" ht="45">
-      <c r="A28" s="0">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>3143342</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2">
         <v>100</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" ht="45">
-      <c r="A29" s="0">
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>3143343</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2">
         <v>600</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="45">
-      <c r="A30" s="0">
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>3143344</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2">
         <v>800</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" ht="45">
-      <c r="A31" s="0">
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>3143345</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2">
         <v>1000</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="45">
-      <c r="A32" s="0">
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>3143346</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2">
         <v>200</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="45">
-      <c r="A33" s="0">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>3143347</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2">
         <v>1000</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="45">
-      <c r="A34" s="0">
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>3143348</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2">
         <v>10000</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" ht="45">
-      <c r="A35" s="0">
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>3143349</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2">
         <v>100</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="30">
-      <c r="A36" s="0">
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>3143350</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2">
         <v>1000</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" ht="30">
-      <c r="A37" s="0">
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="2">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>3143351</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2">
         <v>1000</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" ht="60">
-      <c r="A38" s="0">
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="2">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>3143352</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2">
         <v>200</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" ht="60">
-      <c r="A39" s="0">
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>3143353</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2">
         <v>400</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="45">
-      <c r="A40" s="0">
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40">
         <v>3143354</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2">
         <v>30000</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" ht="45">
-      <c r="A41" s="0">
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41">
         <v>3143355</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2">
         <v>1000</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" ht="45">
-      <c r="A42" s="0">
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42">
         <v>3143356</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2">
         <v>1000</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" ht="45">
-      <c r="A43" s="0">
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43">
         <v>3143357</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2">
         <v>100</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" ht="45">
-      <c r="A44" s="0">
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44">
         <v>3143358</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D44" s="2">
         <v>100</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" ht="60">
-      <c r="A45" s="0">
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45">
         <v>3143359</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2">
         <v>200</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" ht="45">
-      <c r="A46" s="0">
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46">
         <v>3143360</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D46" s="2">
         <v>200</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" ht="45">
-      <c r="A47" s="0">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47">
         <v>3143361</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2">
         <v>400</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" ht="30">
-      <c r="A48" s="0">
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48">
         <v>3143362</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2">
         <v>8000</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" ht="45">
-      <c r="A49" s="0">
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49">
         <v>3143363</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D49" s="2">
         <v>100</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="45">
-      <c r="A50" s="0">
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50">
         <v>3143364</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D50" s="2">
         <v>12000</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" ht="45">
-      <c r="A51" s="0">
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51">
         <v>3143365</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D51" s="2">
         <v>100</v>
       </c>
-      <c r="E51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" ht="45">
-      <c r="A52" s="0">
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52">
         <v>3143366</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2">
         <v>200</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" ht="75">
-      <c r="A53" s="0">
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53">
         <v>3143367</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2">
         <v>100</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" ht="60">
-      <c r="A54" s="0">
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54">
         <v>3143368</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D54" s="2">
         <v>1000</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" ht="45">
-      <c r="A55" s="0">
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55">
         <v>3143369</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2">
         <v>200</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" ht="45">
-      <c r="A56" s="0">
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56">
         <v>3143370</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2">
         <v>100</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" ht="30">
-      <c r="A57" s="0">
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57">
         <v>3143371</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2">
         <v>5000</v>
       </c>
-      <c r="E57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" ht="45">
-      <c r="A58" s="0">
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58">
         <v>3143372</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D58" s="2">
         <v>600</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" ht="45">
-      <c r="A59" s="0">
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59">
         <v>3143373</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D59" s="2">
         <v>600</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" ht="45">
-      <c r="A60" s="0">
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60">
         <v>3143374</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2">
         <v>100</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" ht="60">
-      <c r="A61" s="0">
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61">
         <v>3143375</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2">
         <v>100</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" ht="45">
-      <c r="A62" s="0">
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62">
         <v>3143376</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2">
         <v>200</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" ht="45">
-      <c r="A63" s="0">
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63">
         <v>3143377</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2">
         <v>20</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" ht="30">
-      <c r="A64" s="0">
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64">
         <v>3143378</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2">
         <v>1000</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" ht="45">
-      <c r="A65" s="0">
+      <c r="E64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65">
         <v>3143379</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D65" s="2">
         <v>600</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" ht="45">
-      <c r="A66" s="0">
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66">
         <v>3143380</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D66" s="2">
         <v>600</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="45">
-      <c r="A67" s="0">
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67">
         <v>3143381</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D67" s="2">
         <v>3000</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" ht="45">
-      <c r="A68" s="0">
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68">
         <v>3143382</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D68" s="2">
         <v>50</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" ht="30">
-      <c r="A69" s="0">
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69">
         <v>3143383</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D69" s="2">
         <v>30</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" ht="60">
-      <c r="A70" s="0">
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70">
         <v>3143384</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D70" s="2">
         <v>200</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" ht="45">
-      <c r="A71" s="0">
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71">
         <v>3143385</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D71" s="2">
         <v>600</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" ht="30">
-      <c r="A72" s="0">
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72">
         <v>3143386</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2">
         <v>3000</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" ht="60">
-      <c r="A73" s="0">
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73">
         <v>3143387</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D73" s="2">
         <v>200</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" ht="45">
-      <c r="A74" s="0">
+      <c r="E73" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="2">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74">
         <v>3143388</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D74" s="2">
         <v>200</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" ht="45">
-      <c r="A75" s="0">
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75">
         <v>3143389</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D75" s="2">
         <v>400</v>
       </c>
-      <c r="E75" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" ht="45">
-      <c r="A76" s="0">
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="2">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76">
         <v>3143390</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D76" s="2">
         <v>50</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" ht="45">
-      <c r="A77" s="0">
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77">
         <v>3143391</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D77" s="2">
         <v>1000</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" ht="45">
-      <c r="A78" s="0">
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78">
         <v>3143392</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D78" s="2">
         <v>200</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" ht="45">
-      <c r="A79" s="0">
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79">
         <v>3143393</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D79" s="2">
         <v>100</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" ht="45">
-      <c r="A80" s="0">
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80">
         <v>3143394</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D80" s="2">
         <v>200</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" ht="45">
-      <c r="A81" s="0">
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81">
         <v>3143395</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D81" s="2">
         <v>800</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" ht="45">
-      <c r="A82" s="0">
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="2">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82">
         <v>3143396</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D82" s="2">
         <v>15000</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" ht="45">
-      <c r="A83" s="0">
+      <c r="E82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="2">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83">
         <v>3143397</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D83" s="2">
         <v>100</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" ht="45">
-      <c r="A84" s="0">
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84">
         <v>3143398</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D84" s="2">
         <v>2000</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" ht="45">
-      <c r="A85" s="0">
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85">
         <v>3143399</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D85" s="2">
         <v>200</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" ht="45">
-      <c r="A86" s="0">
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86">
         <v>3143400</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D86" s="2">
         <v>200</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" ht="45">
-      <c r="A87" s="0">
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87">
         <v>3143401</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D87" s="2">
         <v>600</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" ht="45">
-      <c r="A88" s="0">
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88">
         <v>3143402</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D88" s="2">
         <v>400</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" ht="45">
-      <c r="A89" s="0">
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89">
         <v>3143403</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D89" s="2">
         <v>100</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" ht="45">
-      <c r="A90" s="0">
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90">
         <v>3143404</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D90" s="2">
         <v>1000</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" ht="45">
-      <c r="A91" s="0">
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91">
         <v>3143405</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D91" s="2">
         <v>20000</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" ht="45">
-      <c r="A92" s="0">
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92">
         <v>3143406</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D92" s="2">
         <v>100</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" ht="45">
-      <c r="A93" s="0">
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="2">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93">
         <v>3143407</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D93" s="2">
         <v>100</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" ht="45">
-      <c r="A94" s="0">
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94">
         <v>3143408</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D94" s="2">
         <v>1000</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" ht="45">
-      <c r="A95" s="0">
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95">
         <v>3143409</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D95" s="2">
         <v>100</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" ht="45">
-      <c r="A96" s="0">
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96">
         <v>3143410</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D96" s="2">
         <v>300</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" ht="45">
-      <c r="A97" s="0">
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97">
         <v>3143411</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D97" s="2">
         <v>12000</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" ht="45">
-      <c r="A98" s="0">
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98">
         <v>3143412</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D98" s="2">
         <v>6000</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" ht="45">
-      <c r="A99" s="0">
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99">
         <v>3143413</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D99" s="2">
         <v>300</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" ht="30">
-      <c r="A100" s="0">
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100">
         <v>3143414</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D100" s="2">
         <v>4000</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" ht="45">
-      <c r="A101" s="0">
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101">
         <v>3143415</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D101" s="2">
         <v>50</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" ht="60">
-      <c r="A102" s="0">
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102">
         <v>3143416</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D102" s="2">
         <v>50</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" ht="45">
-      <c r="A103" s="0">
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103">
         <v>3143417</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D103" s="2">
         <v>50</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" ht="45">
-      <c r="A104" s="0">
+      <c r="E103" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" t="s">
+        <v>79</v>
+      </c>
+      <c r="G103" s="2">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104">
         <v>3143418</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D104" s="2">
         <v>200</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" ht="45">
-      <c r="A105" s="0">
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105">
         <v>3143419</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D105" s="2">
         <v>300</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" ht="45">
-      <c r="A106" s="0">
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106">
         <v>3143420</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D106" s="2">
         <v>1000</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" ht="60">
-      <c r="A107" s="0">
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107">
         <v>3143421</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D107" s="2">
         <v>100</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" ht="45">
-      <c r="A108" s="0">
+      <c r="E107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s">
+        <v>48</v>
+      </c>
+      <c r="G107" s="2">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108">
         <v>3143422</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D108" s="2">
         <v>4000</v>
       </c>
-      <c r="E108" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" ht="45">
-      <c r="A109" s="0">
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="2">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109">
         <v>3143423</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D109" s="2">
         <v>2000</v>
       </c>
-      <c r="E109" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" ht="45">
-      <c r="A110" s="0">
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110">
         <v>3143424</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D110" s="2">
         <v>100</v>
       </c>
-      <c r="E110" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>8</v>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>